--- a/0_File/1_Data/004_關卡表.xlsx
+++ b/0_File/1_Data/004_關卡表.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="StageData" sheetId="1" r:id="rId1"/>
     <sheet name="RoundGroup" sheetId="2" r:id="rId2"/>
+    <sheet name="#欄位說明" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
   <si>
     <t>int</t>
   </si>
@@ -180,13 +181,100 @@
   </si>
   <si>
     <t>中立產物座標5</t>
+  </si>
+  <si>
+    <t>通用規則說明</t>
+  </si>
+  <si>
+    <t>註1</t>
+  </si>
+  <si>
+    <t>n_xxxx</t>
+  </si>
+  <si>
+    <t>n代表這格資料為單數</t>
+  </si>
+  <si>
+    <t>註2</t>
+  </si>
+  <si>
+    <t>an_xxx</t>
+  </si>
+  <si>
+    <t>an代表這格資料為陣列</t>
+  </si>
+  <si>
+    <t>註3</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>代表該欄位或工作表不輸出</t>
+  </si>
+  <si>
+    <t>欄位格式</t>
+  </si>
+  <si>
+    <t>欄位英文</t>
+  </si>
+  <si>
+    <t>欄位中文</t>
+  </si>
+  <si>
+    <t>欄位內容說明</t>
+  </si>
+  <si>
+    <t>設定總共有幾波</t>
+  </si>
+  <si>
+    <t>按照陣列出怪物組
+讀取RoundGroup</t>
+  </si>
+  <si>
+    <t>打贏該場戰鬥會取得的局內貨幣數量</t>
+  </si>
+  <si>
+    <t>打贏該場戰鬥後取得的獎勵類型
+0=無
+1=零件
+2=基因</t>
+  </si>
+  <si>
+    <t>依照獎勵類型去對照搜尋範圍
+0=普通
+1=稀有
+2=史詩
+3=傳奇
+※顯示的會是該玩家有解鎖的項目</t>
+  </si>
+  <si>
+    <t>該場地是否有額外效果影響
+讀取BuffID</t>
+  </si>
+  <si>
+    <t>流水關卡編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>座標對應16+16格，左上至右下</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>群組ID，每個關卡設置每一波會是一組群組</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物本身的ID
+對應怪物表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -208,8 +296,45 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,8 +359,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFBE5D6"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,11 +401,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -274,9 +431,29 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -580,11 +757,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
@@ -595,7 +772,7 @@
     <col min="7" max="8" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -621,7 +798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -647,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -673,7 +850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -683,7 +860,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -693,7 +870,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -703,7 +880,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -713,7 +890,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -723,7 +900,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -733,7 +910,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -743,7 +920,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -753,7 +930,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -774,11 +951,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection sqref="A1:U3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
@@ -803,7 +980,7 @@
     <col min="21" max="21" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -868,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -933,7 +1110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
@@ -998,7 +1175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1021,7 +1198,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1044,7 +1221,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1067,7 +1244,7 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1090,7 +1267,7 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1113,7 +1290,7 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1136,7 +1313,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1159,7 +1336,7 @@
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1182,7 +1359,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1205,7 +1382,7 @@
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1233,4 +1410,529 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="6"/>
+    <col min="3" max="3" width="22.25" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.375" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="54">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="81">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="27">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="27">
+      <c r="A23" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="27">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="27">
+      <c r="A27" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="27">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="27">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="27">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="27">
+      <c r="A35" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="27">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="27">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="27">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/0_File/1_Data/004_關卡表.xlsx
+++ b/0_File/1_Data/004_關卡表.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="StageData" sheetId="1" r:id="rId1"/>
-    <sheet name="RoundGroup" sheetId="2" r:id="rId2"/>
-    <sheet name="#欄位說明" sheetId="3" r:id="rId3"/>
+    <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
+    <sheet name="RoundGroupInUnity" sheetId="5" r:id="rId2"/>
+    <sheet name="StageData" sheetId="1" r:id="rId3"/>
+    <sheet name="RoundGroup" sheetId="2" r:id="rId4"/>
+    <sheet name="#欄位說明" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
   <si>
     <t>int</t>
   </si>
@@ -267,6 +269,18 @@
   <si>
     <t>怪物本身的ID
 對應怪物表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容暫定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容暫定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容暫定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -755,10 +769,625 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:G36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="4">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="4">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="4">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="4">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="4">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="4">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="4">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="27">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="16.5"/>
@@ -947,12 +1576,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:U3"/>
+      <selection activeCell="M1" sqref="M1:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="16.5"/>
@@ -1412,11 +2041,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
@@ -1547,7 +2176,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="27">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +2266,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="27">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>

--- a/0_File/1_Data/004_關卡表.xlsx
+++ b/0_File/1_Data/004_關卡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
   <si>
     <t>int</t>
   </si>
@@ -272,16 +272,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>內容暫定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容暫定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>內容暫定</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>1,2,2,3,3</t>
+  </si>
+  <si>
+    <t>3,3,3</t>
+  </si>
+  <si>
+    <t>1,2,2</t>
+  </si>
+  <si>
+    <t>2,1,1</t>
+  </si>
+  <si>
+    <t>3,2,1</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -426,6 +429,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -433,7 +496,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -462,6 +525,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -769,272 +859,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="17"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="4">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="A2" s="18">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>5</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="4" t="s">
-        <v>79</v>
+      <c r="D2" s="18">
+        <v>100</v>
+      </c>
+      <c r="E2" s="18">
+        <v>1</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="4">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>79</v>
+      <c r="A3" s="18">
+        <v>2</v>
+      </c>
+      <c r="B3" s="18">
+        <v>3</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="18">
+        <v>50</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>79</v>
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" s="18">
+        <v>3</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="18">
+        <v>50</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
-        <v>0</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>79</v>
+      <c r="A5" s="18">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="18">
+        <v>50</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4">
-        <v>0</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4">
-        <v>0</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4">
-        <v>0</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4">
-        <v>0</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>79</v>
+      <c r="A6" s="18">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18">
+        <v>3</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="18">
+        <v>50</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>3</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1046,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1057,323 +1046,264 @@
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:21" ht="27.75" thickBot="1">
+      <c r="A1" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="N1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="O1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="P1" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="Q1" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="R1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="S1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="T1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="U1" s="20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>79</v>
+    <row r="2" spans="1:21" ht="17.25" thickBot="1">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
+        <v>1001</v>
+      </c>
+      <c r="C2" s="13">
+        <v>17</v>
+      </c>
+      <c r="D2" s="13">
+        <v>1001</v>
+      </c>
+      <c r="E2" s="13">
+        <v>21</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1001</v>
+      </c>
+      <c r="G2" s="13">
+        <v>23</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1002</v>
+      </c>
+      <c r="I2" s="13">
+        <v>30</v>
+      </c>
+      <c r="J2" s="13">
+        <v>1003</v>
+      </c>
+      <c r="K2" s="13">
+        <v>32</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>0</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0</v>
+      </c>
+      <c r="S2" s="13">
+        <v>0</v>
+      </c>
+      <c r="T2" s="13">
+        <v>0</v>
+      </c>
+      <c r="U2" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="17.25" thickBot="1">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>1002</v>
+      </c>
+      <c r="C3" s="15">
+        <v>19</v>
+      </c>
+      <c r="D3" s="15">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="15">
+        <v>21</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1001</v>
+      </c>
+      <c r="G3" s="15">
+        <v>23</v>
+      </c>
+      <c r="H3" s="15">
+        <v>1002</v>
+      </c>
+      <c r="I3" s="15">
+        <v>30</v>
+      </c>
+      <c r="J3" s="15">
+        <v>1003</v>
+      </c>
+      <c r="K3" s="15">
+        <v>32</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0</v>
+      </c>
+      <c r="S3" s="13">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13">
+        <v>0</v>
+      </c>
+      <c r="U3" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17.25" thickBot="1">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <v>1003</v>
+      </c>
+      <c r="C4" s="15">
+        <v>21</v>
+      </c>
+      <c r="D4" s="15">
+        <v>1001</v>
+      </c>
+      <c r="E4" s="15">
+        <v>21</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1001</v>
+      </c>
+      <c r="G4" s="15">
+        <v>23</v>
+      </c>
+      <c r="H4" s="15">
+        <v>1002</v>
+      </c>
+      <c r="I4" s="15">
+        <v>30</v>
+      </c>
+      <c r="J4" s="15">
+        <v>1003</v>
+      </c>
+      <c r="K4" s="15">
+        <v>32</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>0</v>
+      </c>
+      <c r="U4" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1317,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H12"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="16.5"/>
@@ -1580,8 +1510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:U13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="16.5"/>

--- a/0_File/1_Data/004_關卡表.xlsx
+++ b/0_File/1_Data/004_關卡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="87">
   <si>
     <t>int</t>
   </si>
@@ -286,12 +286,24 @@
   <si>
     <t>3,2,1</t>
   </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -347,6 +359,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -496,7 +515,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -507,7 +526,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -553,6 +571,18 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -861,168 +891,168 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="17"/>
+    <col min="1" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="18">
+      <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>100</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="G2" s="18">
-        <v>0</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="G2" s="17">
+        <v>0</v>
+      </c>
+      <c r="H2" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="18">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>3</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>50</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="17">
         <v>2</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="17">
         <v>1</v>
       </c>
-      <c r="G3" s="18">
-        <v>0</v>
-      </c>
-      <c r="H3" s="18">
+      <c r="G3" s="17">
+        <v>0</v>
+      </c>
+      <c r="H3" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="18">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>3</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="17">
         <v>50</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>2</v>
       </c>
-      <c r="G4" s="18">
-        <v>0</v>
-      </c>
-      <c r="H4" s="18">
+      <c r="G4" s="17">
+        <v>0</v>
+      </c>
+      <c r="H4" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="18">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="18">
+      <c r="B5" s="17">
         <v>3</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="17">
         <v>50</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <v>2</v>
       </c>
-      <c r="F5" s="18">
+      <c r="F5" s="17">
         <v>2</v>
       </c>
-      <c r="G5" s="18">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18">
+      <c r="G5" s="17">
+        <v>0</v>
+      </c>
+      <c r="H5" s="17">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="18">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>3</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="17">
         <v>50</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>1</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>3</v>
       </c>
-      <c r="G6" s="18">
-        <v>0</v>
-      </c>
-      <c r="H6" s="18">
+      <c r="G6" s="17">
+        <v>0</v>
+      </c>
+      <c r="H6" s="17">
         <v>0</v>
       </c>
     </row>
@@ -1047,262 +1077,262 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="27.75" thickBot="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="19" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A2" s="12">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="12">
         <v>1001</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="12">
         <v>17</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>1001</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="12">
         <v>21</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="12">
         <v>1001</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="12">
         <v>23</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>1002</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="12">
         <v>30</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="12">
         <v>1003</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="12">
         <v>32</v>
       </c>
-      <c r="L2" s="13">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <v>0</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0</v>
-      </c>
-      <c r="O2" s="13">
-        <v>0</v>
-      </c>
-      <c r="P2" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="13">
-        <v>0</v>
-      </c>
-      <c r="R2" s="13">
-        <v>0</v>
-      </c>
-      <c r="S2" s="13">
-        <v>0</v>
-      </c>
-      <c r="T2" s="13">
-        <v>0</v>
-      </c>
-      <c r="U2" s="13">
+      <c r="L2" s="12">
+        <v>0</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0</v>
+      </c>
+      <c r="N2" s="12">
+        <v>0</v>
+      </c>
+      <c r="O2" s="12">
+        <v>0</v>
+      </c>
+      <c r="P2" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>0</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0</v>
+      </c>
+      <c r="S2" s="12">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12">
+        <v>0</v>
+      </c>
+      <c r="U2" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A3" s="14">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>1002</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="14">
         <v>19</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="14">
         <v>1001</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>21</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="14">
         <v>1001</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>23</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>1002</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="14">
         <v>30</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="14">
         <v>1003</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>32</v>
       </c>
-      <c r="L3" s="13">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>0</v>
-      </c>
-      <c r="R3" s="13">
-        <v>0</v>
-      </c>
-      <c r="S3" s="13">
-        <v>0</v>
-      </c>
-      <c r="T3" s="13">
-        <v>0</v>
-      </c>
-      <c r="U3" s="13">
+      <c r="L3" s="12">
+        <v>0</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0</v>
+      </c>
+      <c r="N3" s="12">
+        <v>0</v>
+      </c>
+      <c r="O3" s="12">
+        <v>0</v>
+      </c>
+      <c r="P3" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="12">
+        <v>0</v>
+      </c>
+      <c r="R3" s="12">
+        <v>0</v>
+      </c>
+      <c r="S3" s="12">
+        <v>0</v>
+      </c>
+      <c r="T3" s="12">
+        <v>0</v>
+      </c>
+      <c r="U3" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="17.25" thickBot="1">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>1003</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>21</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <v>1001</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14">
         <v>21</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>1001</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>23</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="14">
         <v>1002</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="14">
         <v>30</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="14">
         <v>1003</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>32</v>
       </c>
-      <c r="L4" s="13">
-        <v>0</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13">
-        <v>0</v>
-      </c>
-      <c r="S4" s="13">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13">
-        <v>0</v>
-      </c>
-      <c r="U4" s="13">
+      <c r="L4" s="12">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0</v>
+      </c>
+      <c r="N4" s="12">
+        <v>0</v>
+      </c>
+      <c r="O4" s="12">
+        <v>0</v>
+      </c>
+      <c r="P4" s="12">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>0</v>
+      </c>
+      <c r="R4" s="12">
+        <v>0</v>
+      </c>
+      <c r="S4" s="12">
+        <v>0</v>
+      </c>
+      <c r="T4" s="12">
+        <v>0</v>
+      </c>
+      <c r="U4" s="12">
         <v>0</v>
       </c>
     </row>
@@ -1314,190 +1344,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="19.125" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.25" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="19.125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
+        <v>3</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="23">
+        <v>100</v>
+      </c>
+      <c r="E4" s="23">
+        <v>1</v>
+      </c>
+      <c r="F4" s="23">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23">
+        <v>0</v>
+      </c>
+      <c r="H4" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23">
+        <v>5</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="23">
+        <v>100</v>
+      </c>
+      <c r="E5" s="23">
+        <v>1</v>
+      </c>
+      <c r="F5" s="23">
+        <v>1</v>
+      </c>
+      <c r="G5" s="23">
+        <v>0</v>
+      </c>
+      <c r="H5" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23">
+        <v>8</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="23">
+        <v>100</v>
+      </c>
+      <c r="E6" s="23">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23">
+        <v>2</v>
+      </c>
+      <c r="G6" s="23">
+        <v>0</v>
+      </c>
+      <c r="H6" s="23">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1508,461 +1527,752 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13:K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="16.25" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="6.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.375" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.75" style="21" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.125" style="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="16.25" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q1" s="1" t="s">
+      <c r="P1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="S1" s="1" t="s">
+      <c r="R1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="T1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:21">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:21">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="P3" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="S3" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="T3" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="U3" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:21">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
+      <c r="A4" s="23">
+        <v>1</v>
+      </c>
+      <c r="B4" s="23">
+        <v>101</v>
+      </c>
+      <c r="C4" s="23">
+        <v>17</v>
+      </c>
+      <c r="D4" s="23">
+        <v>101</v>
+      </c>
+      <c r="E4" s="23">
+        <v>19</v>
+      </c>
+      <c r="F4" s="23">
+        <v>101</v>
+      </c>
+      <c r="G4" s="23">
+        <v>21</v>
+      </c>
+      <c r="H4" s="23">
+        <v>101</v>
+      </c>
+      <c r="I4" s="23">
+        <v>23</v>
+      </c>
+      <c r="J4" s="23">
+        <v>101</v>
+      </c>
+      <c r="K4" s="23">
+        <v>25</v>
+      </c>
+      <c r="L4" s="23">
+        <v>0</v>
+      </c>
+      <c r="M4" s="23">
+        <v>0</v>
+      </c>
+      <c r="N4" s="23">
+        <v>0</v>
+      </c>
+      <c r="O4" s="23">
+        <v>0</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="23">
+        <v>0</v>
+      </c>
+      <c r="R4" s="23">
+        <v>0</v>
+      </c>
+      <c r="S4" s="23">
+        <v>0</v>
+      </c>
+      <c r="T4" s="23">
+        <v>0</v>
+      </c>
+      <c r="U4" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:21">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="A5" s="23">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23">
+        <v>102</v>
+      </c>
+      <c r="C5" s="23">
+        <v>19</v>
+      </c>
+      <c r="D5" s="23">
+        <v>102</v>
+      </c>
+      <c r="E5" s="23">
+        <v>20</v>
+      </c>
+      <c r="F5" s="23">
+        <v>102</v>
+      </c>
+      <c r="G5" s="23">
+        <v>21</v>
+      </c>
+      <c r="H5" s="23">
+        <v>102</v>
+      </c>
+      <c r="I5" s="23">
+        <v>22</v>
+      </c>
+      <c r="J5" s="23">
+        <v>102</v>
+      </c>
+      <c r="K5" s="23">
+        <v>23</v>
+      </c>
+      <c r="L5" s="23">
+        <v>0</v>
+      </c>
+      <c r="M5" s="23">
+        <v>0</v>
+      </c>
+      <c r="N5" s="23">
+        <v>0</v>
+      </c>
+      <c r="O5" s="23">
+        <v>0</v>
+      </c>
+      <c r="P5" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="23">
+        <v>0</v>
+      </c>
+      <c r="R5" s="23">
+        <v>0</v>
+      </c>
+      <c r="S5" s="23">
+        <v>0</v>
+      </c>
+      <c r="T5" s="23">
+        <v>0</v>
+      </c>
+      <c r="U5" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:21">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="A6" s="23">
+        <v>3</v>
+      </c>
+      <c r="B6" s="23">
+        <v>103</v>
+      </c>
+      <c r="C6" s="23">
+        <v>18</v>
+      </c>
+      <c r="D6" s="23">
+        <v>103</v>
+      </c>
+      <c r="E6" s="23">
+        <v>19</v>
+      </c>
+      <c r="F6" s="23">
+        <v>103</v>
+      </c>
+      <c r="G6" s="23">
+        <v>20</v>
+      </c>
+      <c r="H6" s="23">
+        <v>103</v>
+      </c>
+      <c r="I6" s="23">
+        <v>21</v>
+      </c>
+      <c r="J6" s="23">
+        <v>103</v>
+      </c>
+      <c r="K6" s="23">
+        <v>22</v>
+      </c>
+      <c r="L6" s="23">
+        <v>0</v>
+      </c>
+      <c r="M6" s="23">
+        <v>0</v>
+      </c>
+      <c r="N6" s="23">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23">
+        <v>0</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="23">
+        <v>0</v>
+      </c>
+      <c r="R6" s="23">
+        <v>0</v>
+      </c>
+      <c r="S6" s="23">
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
+        <v>0</v>
+      </c>
+      <c r="U6" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:21">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="A7" s="23">
+        <v>4</v>
+      </c>
+      <c r="B7" s="23">
+        <v>104</v>
+      </c>
+      <c r="C7" s="23">
+        <v>25</v>
+      </c>
+      <c r="D7" s="23">
+        <v>104</v>
+      </c>
+      <c r="E7" s="23">
+        <v>26</v>
+      </c>
+      <c r="F7" s="23">
+        <v>104</v>
+      </c>
+      <c r="G7" s="23">
+        <v>27</v>
+      </c>
+      <c r="H7" s="23">
+        <v>104</v>
+      </c>
+      <c r="I7" s="23">
+        <v>28</v>
+      </c>
+      <c r="J7" s="23">
+        <v>104</v>
+      </c>
+      <c r="K7" s="23">
+        <v>29</v>
+      </c>
+      <c r="L7" s="23">
+        <v>0</v>
+      </c>
+      <c r="M7" s="23">
+        <v>0</v>
+      </c>
+      <c r="N7" s="23">
+        <v>0</v>
+      </c>
+      <c r="O7" s="23">
+        <v>0</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="23">
+        <v>0</v>
+      </c>
+      <c r="R7" s="23">
+        <v>0</v>
+      </c>
+      <c r="S7" s="23">
+        <v>0</v>
+      </c>
+      <c r="T7" s="23">
+        <v>0</v>
+      </c>
+      <c r="U7" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:21">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="A8" s="23">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23">
+        <v>105</v>
+      </c>
+      <c r="C8" s="23">
+        <v>26</v>
+      </c>
+      <c r="D8" s="23">
+        <v>105</v>
+      </c>
+      <c r="E8" s="23">
+        <v>27</v>
+      </c>
+      <c r="F8" s="23">
+        <v>105</v>
+      </c>
+      <c r="G8" s="23">
+        <v>28</v>
+      </c>
+      <c r="H8" s="23">
+        <v>105</v>
+      </c>
+      <c r="I8" s="23">
+        <v>29</v>
+      </c>
+      <c r="J8" s="23">
+        <v>105</v>
+      </c>
+      <c r="K8" s="23">
+        <v>18</v>
+      </c>
+      <c r="L8" s="23">
+        <v>0</v>
+      </c>
+      <c r="M8" s="23">
+        <v>0</v>
+      </c>
+      <c r="N8" s="23">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23">
+        <v>0</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="23">
+        <v>0</v>
+      </c>
+      <c r="R8" s="23">
+        <v>0</v>
+      </c>
+      <c r="S8" s="23">
+        <v>0</v>
+      </c>
+      <c r="T8" s="23">
+        <v>0</v>
+      </c>
+      <c r="U8" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:21">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="A9" s="23">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23">
+        <v>106</v>
+      </c>
+      <c r="C9" s="23">
+        <v>27</v>
+      </c>
+      <c r="D9" s="23">
+        <v>106</v>
+      </c>
+      <c r="E9" s="23">
+        <v>28</v>
+      </c>
+      <c r="F9" s="23">
+        <v>106</v>
+      </c>
+      <c r="G9" s="23">
+        <v>29</v>
+      </c>
+      <c r="H9" s="23">
+        <v>106</v>
+      </c>
+      <c r="I9" s="23">
+        <v>30</v>
+      </c>
+      <c r="J9" s="23">
+        <v>106</v>
+      </c>
+      <c r="K9" s="23">
+        <v>21</v>
+      </c>
+      <c r="L9" s="23">
+        <v>0</v>
+      </c>
+      <c r="M9" s="23">
+        <v>0</v>
+      </c>
+      <c r="N9" s="23">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23">
+        <v>0</v>
+      </c>
+      <c r="P9" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="23">
+        <v>0</v>
+      </c>
+      <c r="R9" s="23">
+        <v>0</v>
+      </c>
+      <c r="S9" s="23">
+        <v>0</v>
+      </c>
+      <c r="T9" s="23">
+        <v>0</v>
+      </c>
+      <c r="U9" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:21">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="A10" s="23">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23">
+        <v>107</v>
+      </c>
+      <c r="C10" s="23">
+        <v>28</v>
+      </c>
+      <c r="D10" s="23">
+        <v>107</v>
+      </c>
+      <c r="E10" s="23">
+        <v>29</v>
+      </c>
+      <c r="F10" s="23">
+        <v>107</v>
+      </c>
+      <c r="G10" s="23">
+        <v>30</v>
+      </c>
+      <c r="H10" s="23">
+        <v>107</v>
+      </c>
+      <c r="I10" s="23">
+        <v>18</v>
+      </c>
+      <c r="J10" s="23">
+        <v>107</v>
+      </c>
+      <c r="K10" s="23">
+        <v>24</v>
+      </c>
+      <c r="L10" s="23">
+        <v>0</v>
+      </c>
+      <c r="M10" s="23">
+        <v>0</v>
+      </c>
+      <c r="N10" s="23">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23">
+        <v>0</v>
+      </c>
+      <c r="P10" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="23">
+        <v>0</v>
+      </c>
+      <c r="R10" s="23">
+        <v>0</v>
+      </c>
+      <c r="S10" s="23">
+        <v>0</v>
+      </c>
+      <c r="T10" s="23">
+        <v>0</v>
+      </c>
+      <c r="U10" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:21">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="A11" s="23">
+        <v>8</v>
+      </c>
+      <c r="B11" s="23">
+        <v>108</v>
+      </c>
+      <c r="C11" s="23">
+        <v>29</v>
+      </c>
+      <c r="D11" s="23">
+        <v>108</v>
+      </c>
+      <c r="E11" s="23">
+        <v>30</v>
+      </c>
+      <c r="F11" s="23">
+        <v>108</v>
+      </c>
+      <c r="G11" s="23">
+        <v>31</v>
+      </c>
+      <c r="H11" s="23">
+        <v>108</v>
+      </c>
+      <c r="I11" s="23">
+        <v>20</v>
+      </c>
+      <c r="J11" s="23">
+        <v>108</v>
+      </c>
+      <c r="K11" s="23">
+        <v>25</v>
+      </c>
+      <c r="L11" s="23">
+        <v>0</v>
+      </c>
+      <c r="M11" s="23">
+        <v>0</v>
+      </c>
+      <c r="N11" s="23">
+        <v>0</v>
+      </c>
+      <c r="O11" s="23">
+        <v>0</v>
+      </c>
+      <c r="P11" s="23">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="23">
+        <v>0</v>
+      </c>
+      <c r="R11" s="23">
+        <v>0</v>
+      </c>
+      <c r="S11" s="23">
+        <v>0</v>
+      </c>
+      <c r="T11" s="23">
+        <v>0</v>
+      </c>
+      <c r="U11" s="23">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1975,92 +2285,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="6"/>
-    <col min="3" max="3" width="22.25" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="16.375" style="6"/>
+    <col min="1" max="1" width="11.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="5"/>
+    <col min="3" max="3" width="22.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.375" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="8"/>
+      <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2074,7 +2384,7 @@
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="10" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2088,7 +2398,7 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2102,7 +2412,7 @@
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2116,7 +2426,7 @@
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="10" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2130,7 +2440,7 @@
       <c r="C13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2144,7 +2454,7 @@
       <c r="C14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2158,7 +2468,7 @@
       <c r="C15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2172,27 +2482,27 @@
       <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2206,7 +2516,7 @@
       <c r="C22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2220,7 +2530,7 @@
       <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2234,7 +2544,7 @@
       <c r="C24" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2248,7 +2558,7 @@
       <c r="C25" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="D25" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2262,7 +2572,7 @@
       <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="11" t="s">
+      <c r="D26" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2276,7 +2586,7 @@
       <c r="C27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2290,7 +2600,7 @@
       <c r="C28" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="D28" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2304,7 +2614,7 @@
       <c r="C29" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="D29" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2318,7 +2628,7 @@
       <c r="C30" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2332,7 +2642,7 @@
       <c r="C31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2346,7 +2656,7 @@
       <c r="C32" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="D32" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2360,7 +2670,7 @@
       <c r="C33" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="11" t="s">
+      <c r="D33" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2374,7 +2684,7 @@
       <c r="C34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="11" t="s">
+      <c r="D34" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2388,7 +2698,7 @@
       <c r="C35" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2402,7 +2712,7 @@
       <c r="C36" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2416,7 +2726,7 @@
       <c r="C37" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2430,7 +2740,7 @@
       <c r="C38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="11" t="s">
+      <c r="D38" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2444,7 +2754,7 @@
       <c r="C39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="D39" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2458,7 +2768,7 @@
       <c r="C40" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2472,7 +2782,7 @@
       <c r="C41" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D41" s="10" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2486,7 +2796,7 @@
       <c r="C42" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D42" s="10" t="s">
         <v>76</v>
       </c>
     </row>
